--- a/TKH Student Projects.xlsx
+++ b/TKH Student Projects.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuliu/Documents/The-Curators/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2056C5BA-63D9-6945-A1AB-3A8719BC3AFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6895C715-09CD-9C49-A833-E186BEFA8D4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36000" yWindow="2100" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-35140" yWindow="7800" windowWidth="28720" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TKH Student Projects" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="77">
   <si>
     <t>Student Name</t>
   </si>
@@ -208,13 +208,58 @@
   </si>
   <si>
     <t>http://bloom-jobs.netlify.app/</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1gGgdt0N7h9F-lgPx31tAB7CCGpcPbMJu/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1fweBANwTrMej0UeSxBMDSDEWUepx8ppa/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Q7gc5OJXZyMaoL-WJAT9UMnWMzcoFefe/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1EW6DcPzIi6nJPr-VhjsJNF48E6LwkSHo/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Photo Link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1tNQQUILSve7_A3XWbwf7_6lXLM5XzxmP/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/18f6rgbGUjkQJBzjyFepz6lkO32UIhfuD/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/13xQaw7AvWaZ_7JwJbDdzLsCPb8Hr-H_a/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1lXnQ7tnNnm1V68hXqjrKa-XAT7CaFGxy/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1HZ6oIEj1WtelIptPAYFs9B3TwbIOxkWq/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1R1hlm8JAsihfBPRNLqHn38aWrHJ15K4I/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/11FzAwesNxtv4dX-RRVz2ShAT1j4N36j1/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1mxBextEL6soHhzkdLRedHMw97H26713U/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Uhc6_xtq_Z3MgYl7mh4mVL2bUgzipSZg/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/15TErMBiv4bu1wh7b847U_n4l5EID1_iK/view?usp=sharing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -243,6 +288,12 @@
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -267,10 +318,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -284,8 +336,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -502,10 +556,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -518,7 +572,7 @@
     <col min="6" max="6" width="32.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -537,8 +591,11 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1">
+      <c r="G1" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -554,8 +611,11 @@
       <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1">
+      <c r="G2" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
@@ -568,8 +628,11 @@
       <c r="D3" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1">
+      <c r="G3" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
@@ -582,8 +645,11 @@
       <c r="D4" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1">
+      <c r="G4" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
@@ -599,8 +665,11 @@
       <c r="E5" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1">
+      <c r="G5" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>21</v>
       </c>
@@ -616,8 +685,11 @@
       <c r="E6" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1">
+      <c r="G6" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>24</v>
       </c>
@@ -633,8 +705,11 @@
       <c r="E7" s="6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1">
+      <c r="G7" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>28</v>
       </c>
@@ -647,8 +722,11 @@
       <c r="D8" s="4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1">
+      <c r="G8" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>31</v>
       </c>
@@ -667,8 +745,11 @@
       <c r="F9" s="4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1">
+      <c r="G9" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>36</v>
       </c>
@@ -681,8 +762,11 @@
       <c r="D10" s="5" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1">
+      <c r="G10" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="A11" s="3" t="s">
         <v>39</v>
       </c>
@@ -698,8 +782,11 @@
       <c r="E11" s="6" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1">
+      <c r="G11" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="A12" s="2" t="s">
         <v>43</v>
       </c>
@@ -718,8 +805,11 @@
       <c r="F12" s="5" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1">
+      <c r="G12" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="A13" s="2" t="s">
         <v>48</v>
       </c>
@@ -735,8 +825,11 @@
       <c r="E13" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1">
+      <c r="G13" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="A14" s="3" t="s">
         <v>52</v>
       </c>
@@ -752,8 +845,11 @@
       <c r="E14" s="3" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" customHeight="1">
+      <c r="G14" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="A15" s="3" t="s">
         <v>56</v>
       </c>
@@ -768,6 +864,9 @@
       </c>
       <c r="E15" s="3" t="s">
         <v>59</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -786,6 +885,20 @@
     <hyperlink ref="D13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
     <hyperlink ref="D14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
     <hyperlink ref="D15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="G6" r:id="rId15" xr:uid="{DA629E03-A604-4B4D-9DC2-A5DC8A2A483E}"/>
+    <hyperlink ref="G3" r:id="rId16" xr:uid="{38D74F72-06B8-CA49-8B77-D5E8D461B81B}"/>
+    <hyperlink ref="G4" r:id="rId17" xr:uid="{2F6D9E2C-4BEA-844B-8C50-25DE3B4E08B9}"/>
+    <hyperlink ref="G7" r:id="rId18" xr:uid="{5871BAE5-B826-EF43-A680-5C30085AB8FF}"/>
+    <hyperlink ref="G10" r:id="rId19" xr:uid="{CD2B5B81-7358-E44D-BEFD-07716E7ECFDE}"/>
+    <hyperlink ref="G8" r:id="rId20" xr:uid="{9113BB17-58AF-EC4E-BA2D-AE1D7439301D}"/>
+    <hyperlink ref="G15" r:id="rId21" xr:uid="{BAB737E0-4CB1-8D47-976F-5BCA74C19A5E}"/>
+    <hyperlink ref="G12" r:id="rId22" xr:uid="{BEE628F3-FF28-1E4E-846D-22139DCC1DE9}"/>
+    <hyperlink ref="G13" r:id="rId23" xr:uid="{B70A7910-5780-5E4B-92E9-1EC01E4497BA}"/>
+    <hyperlink ref="G14" r:id="rId24" xr:uid="{B175125A-9754-7543-84CD-DEDA1D3F1C29}"/>
+    <hyperlink ref="G11" r:id="rId25" xr:uid="{92AB94DD-A14A-1842-9C13-8C043D9DFD4F}"/>
+    <hyperlink ref="G9" r:id="rId26" xr:uid="{1DD8CE8C-52F2-994A-A262-79978885A421}"/>
+    <hyperlink ref="G5" r:id="rId27" xr:uid="{D5DCCD97-A1E8-A242-8A08-24F1785F4358}"/>
+    <hyperlink ref="G2" r:id="rId28" xr:uid="{D77FB9D4-6E18-8444-8BBD-349D57806B33}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
